--- a/biology/Médecine/Adénome_hépatocellulaire/Adénome_hépatocellulaire.xlsx
+++ b/biology/Médecine/Adénome_hépatocellulaire/Adénome_hépatocellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nome_h%C3%A9patocellulaire</t>
+          <t>Adénome_hépatocellulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adénome hépatocellulaire est une tumeur bénigne du foie rare qui atteint la femme. Elle serait due aux contraceptifs oraux. L'incidence est estimée à un cas par million. La taille de la tumeur varie de 1 cm à 20 cm. Le plus souvent, des lésions sont découvertes au hasard lors d'examens radiologiques effectués pour d'autres raisons [1]
-L'analyse génétique de l'adénome peut révéler des mutations sur le NFIA ou bêta-caténine[2].
-La complication principale est la survenue d'une hémorragie, d'autant que l'adénome est volumineux, situé sur le lobe gauche du foie, ou à proximité d'une artère[3].
-La prise en charge de ces tumeurs ont fait l'objet de la publication de recommandations par des sociétés savantes. Celles de l'« American College of Gastroenterology » datent de 2014[4]. La contraception oestro-progestative  est naturellement interdite.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adénome hépatocellulaire est une tumeur bénigne du foie rare qui atteint la femme. Elle serait due aux contraceptifs oraux. L'incidence est estimée à un cas par million. La taille de la tumeur varie de 1 cm à 20 cm. Le plus souvent, des lésions sont découvertes au hasard lors d'examens radiologiques effectués pour d'autres raisons 
+L'analyse génétique de l'adénome peut révéler des mutations sur le NFIA ou bêta-caténine.
+La complication principale est la survenue d'une hémorragie, d'autant que l'adénome est volumineux, situé sur le lobe gauche du foie, ou à proximité d'une artère.
+La prise en charge de ces tumeurs ont fait l'objet de la publication de recommandations par des sociétés savantes. Celles de l'« American College of Gastroenterology » datent de 2014. La contraception oestro-progestative  est naturellement interdite.
 L'adénome hépatocellulaire est évoquée dans l'épisode 9 de la Saison 2 de Dr House.
 </t>
         </is>
